--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A63FB86-4670-4A06-94FB-CE90E81275BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7566E-B12A-434A-B9FB-A971AEF1F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeCollection" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +137,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,7 +161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +184,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2150,6 +2159,236 @@
       </c>
       <c r="G71" s="7">
         <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>60</v>
+      </c>
+      <c r="B72" s="8">
+        <v>142</v>
+      </c>
+      <c r="C72" s="8">
+        <v>9</v>
+      </c>
+      <c r="D72" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E72" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F72" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G72" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>61</v>
+      </c>
+      <c r="B73" s="8">
+        <v>144</v>
+      </c>
+      <c r="C73" s="8">
+        <v>9</v>
+      </c>
+      <c r="D73" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E73" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F73" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G73" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>62</v>
+      </c>
+      <c r="B74" s="8">
+        <v>146</v>
+      </c>
+      <c r="C74" s="8">
+        <v>9</v>
+      </c>
+      <c r="D74" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E74" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F74" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G74" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>63</v>
+      </c>
+      <c r="B75" s="8">
+        <v>148</v>
+      </c>
+      <c r="C75" s="8">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E75" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F75" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G75" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>64</v>
+      </c>
+      <c r="B76" s="8">
+        <v>150</v>
+      </c>
+      <c r="C76" s="8">
+        <v>9</v>
+      </c>
+      <c r="D76" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E76" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F76" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G76" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>65</v>
+      </c>
+      <c r="B77" s="8">
+        <v>152</v>
+      </c>
+      <c r="C77" s="8">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E77" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F77" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G77" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>66</v>
+      </c>
+      <c r="B78" s="8">
+        <v>154</v>
+      </c>
+      <c r="C78" s="8">
+        <v>9</v>
+      </c>
+      <c r="D78" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E78" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F78" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G78" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>67</v>
+      </c>
+      <c r="B79" s="8">
+        <v>156</v>
+      </c>
+      <c r="C79" s="8">
+        <v>9</v>
+      </c>
+      <c r="D79" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E79" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F79" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G79" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>68</v>
+      </c>
+      <c r="B80" s="8">
+        <v>158</v>
+      </c>
+      <c r="C80" s="8">
+        <v>9</v>
+      </c>
+      <c r="D80" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E80" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F80" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G80" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>69</v>
+      </c>
+      <c r="B81" s="8">
+        <v>160</v>
+      </c>
+      <c r="C81" s="8">
+        <v>9</v>
+      </c>
+      <c r="D81" s="8">
+        <v>9026</v>
+      </c>
+      <c r="E81" s="8">
+        <v>6000</v>
+      </c>
+      <c r="F81" s="8">
+        <v>9026</v>
+      </c>
+      <c r="G81" s="8">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7566E-B12A-434A-B9FB-A971AEF1F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC604C-ADA1-4311-BE3C-621DDCF0DCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1785" yWindow="1770" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeCollection" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2162,8 +2162,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
-        <v>60</v>
+      <c r="A72" s="7">
+        <v>70</v>
       </c>
       <c r="B72" s="8">
         <v>142</v>
@@ -2185,8 +2185,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
-        <v>61</v>
+      <c r="A73" s="7">
+        <v>71</v>
       </c>
       <c r="B73" s="8">
         <v>144</v>
@@ -2208,8 +2208,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
-        <v>62</v>
+      <c r="A74" s="7">
+        <v>72</v>
       </c>
       <c r="B74" s="8">
         <v>146</v>
@@ -2231,8 +2231,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
-        <v>63</v>
+      <c r="A75" s="7">
+        <v>73</v>
       </c>
       <c r="B75" s="8">
         <v>148</v>
@@ -2254,8 +2254,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
-        <v>64</v>
+      <c r="A76" s="7">
+        <v>74</v>
       </c>
       <c r="B76" s="8">
         <v>150</v>
@@ -2277,8 +2277,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>65</v>
+      <c r="A77" s="7">
+        <v>75</v>
       </c>
       <c r="B77" s="8">
         <v>152</v>
@@ -2300,8 +2300,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
-        <v>66</v>
+      <c r="A78" s="7">
+        <v>76</v>
       </c>
       <c r="B78" s="8">
         <v>154</v>
@@ -2323,8 +2323,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
-        <v>67</v>
+      <c r="A79" s="7">
+        <v>77</v>
       </c>
       <c r="B79" s="8">
         <v>156</v>
@@ -2346,8 +2346,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
-        <v>68</v>
+      <c r="A80" s="7">
+        <v>78</v>
       </c>
       <c r="B80" s="8">
         <v>158</v>
@@ -2369,8 +2369,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
-        <v>69</v>
+      <c r="A81" s="7">
+        <v>79</v>
       </c>
       <c r="B81" s="8">
         <v>160</v>

--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC604C-ADA1-4311-BE3C-621DDCF0DCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1A1726-39DF-4E09-9ED7-33D114798B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1770" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeCollection" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +87,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +151,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -153,15 +166,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,9 +205,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30"/>
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2389,6 +2409,236 @@
       </c>
       <c r="G81" s="8">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9">
+        <v>162</v>
+      </c>
+      <c r="C82" s="9">
+        <v>10</v>
+      </c>
+      <c r="D82" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F82" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G82" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>81</v>
+      </c>
+      <c r="B83" s="9">
+        <v>164</v>
+      </c>
+      <c r="C83" s="9">
+        <v>10</v>
+      </c>
+      <c r="D83" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F83" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>82</v>
+      </c>
+      <c r="B84" s="9">
+        <v>166</v>
+      </c>
+      <c r="C84" s="9">
+        <v>10</v>
+      </c>
+      <c r="D84" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F84" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9">
+        <v>168</v>
+      </c>
+      <c r="C85" s="9">
+        <v>10</v>
+      </c>
+      <c r="D85" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F85" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9">
+        <v>170</v>
+      </c>
+      <c r="C86" s="9">
+        <v>10</v>
+      </c>
+      <c r="D86" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E86" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F86" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9">
+        <v>172</v>
+      </c>
+      <c r="C87" s="9">
+        <v>10</v>
+      </c>
+      <c r="D87" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E87" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F87" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9">
+        <v>174</v>
+      </c>
+      <c r="C88" s="9">
+        <v>10</v>
+      </c>
+      <c r="D88" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E88" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F88" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9">
+        <v>176</v>
+      </c>
+      <c r="C89" s="9">
+        <v>10</v>
+      </c>
+      <c r="D89" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F89" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>88</v>
+      </c>
+      <c r="B90" s="9">
+        <v>178</v>
+      </c>
+      <c r="C90" s="9">
+        <v>10</v>
+      </c>
+      <c r="D90" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E90" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F90" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <v>89</v>
+      </c>
+      <c r="B91" s="9">
+        <v>180</v>
+      </c>
+      <c r="C91" s="9">
+        <v>10</v>
+      </c>
+      <c r="D91" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F91" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1A1726-39DF-4E09-9ED7-33D114798B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26981D7E-179B-4B03-9ABB-20C65926676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeCollection" sheetId="1" r:id="rId1"/>
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2638,6 +2638,121 @@
         <v>9032</v>
       </c>
       <c r="G91" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9">
+        <v>182</v>
+      </c>
+      <c r="C92" s="9">
+        <v>10</v>
+      </c>
+      <c r="D92" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F92" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9">
+        <v>184</v>
+      </c>
+      <c r="C93" s="9">
+        <v>10</v>
+      </c>
+      <c r="D93" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E93" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F93" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>92</v>
+      </c>
+      <c r="B94" s="9">
+        <v>186</v>
+      </c>
+      <c r="C94" s="9">
+        <v>10</v>
+      </c>
+      <c r="D94" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F94" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>93</v>
+      </c>
+      <c r="B95" s="9">
+        <v>188</v>
+      </c>
+      <c r="C95" s="9">
+        <v>10</v>
+      </c>
+      <c r="D95" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E95" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F95" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>94</v>
+      </c>
+      <c r="B96" s="9">
+        <v>190</v>
+      </c>
+      <c r="C96" s="9">
+        <v>10</v>
+      </c>
+      <c r="D96" s="9">
+        <v>9032</v>
+      </c>
+      <c r="E96" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F96" s="9">
+        <v>9032</v>
+      </c>
+      <c r="G96" s="9">
         <v>1000000</v>
       </c>
     </row>

--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26981D7E-179B-4B03-9ABB-20C65926676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E7FD4F-4D2B-4643-A75A-38C29B127016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +95,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +164,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -166,7 +179,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,8 +189,11 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,9 +224,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30"/>
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -532,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2754,6 +2774,121 @@
       </c>
       <c r="G96" s="9">
         <v>1000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="10">
+        <v>95</v>
+      </c>
+      <c r="B97" s="10">
+        <v>192</v>
+      </c>
+      <c r="C97" s="10">
+        <v>11</v>
+      </c>
+      <c r="D97" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E97" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F97" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G97" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="10">
+        <v>96</v>
+      </c>
+      <c r="B98" s="10">
+        <v>194</v>
+      </c>
+      <c r="C98" s="10">
+        <v>11</v>
+      </c>
+      <c r="D98" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E98" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F98" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G98" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="10">
+        <v>97</v>
+      </c>
+      <c r="B99" s="10">
+        <v>196</v>
+      </c>
+      <c r="C99" s="10">
+        <v>11</v>
+      </c>
+      <c r="D99" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E99" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F99" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G99" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="10">
+        <v>98</v>
+      </c>
+      <c r="B100" s="10">
+        <v>198</v>
+      </c>
+      <c r="C100" s="10">
+        <v>11</v>
+      </c>
+      <c r="D100" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E100" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F100" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G100" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="10">
+        <v>99</v>
+      </c>
+      <c r="B101" s="10">
+        <v>200</v>
+      </c>
+      <c r="C101" s="10">
+        <v>11</v>
+      </c>
+      <c r="D101" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E101" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F101" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G101" s="10">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E7FD4F-4D2B-4643-A75A-38C29B127016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F0EDD4-EDE2-4B0D-9E71-209600E58596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -552,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2888,6 +2888,236 @@
         <v>9043</v>
       </c>
       <c r="G101" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="10">
+        <v>100</v>
+      </c>
+      <c r="B102" s="10">
+        <v>202</v>
+      </c>
+      <c r="C102" s="10">
+        <v>11</v>
+      </c>
+      <c r="D102" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E102" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F102" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G102" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>101</v>
+      </c>
+      <c r="B103" s="10">
+        <v>204</v>
+      </c>
+      <c r="C103" s="10">
+        <v>11</v>
+      </c>
+      <c r="D103" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E103" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F103" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G103" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>102</v>
+      </c>
+      <c r="B104" s="10">
+        <v>206</v>
+      </c>
+      <c r="C104" s="10">
+        <v>11</v>
+      </c>
+      <c r="D104" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E104" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F104" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G104" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="10">
+        <v>103</v>
+      </c>
+      <c r="B105" s="10">
+        <v>208</v>
+      </c>
+      <c r="C105" s="10">
+        <v>11</v>
+      </c>
+      <c r="D105" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E105" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F105" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G105" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
+        <v>104</v>
+      </c>
+      <c r="B106" s="10">
+        <v>210</v>
+      </c>
+      <c r="C106" s="10">
+        <v>11</v>
+      </c>
+      <c r="D106" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E106" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F106" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G106" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="10">
+        <v>105</v>
+      </c>
+      <c r="B107" s="10">
+        <v>212</v>
+      </c>
+      <c r="C107" s="10">
+        <v>11</v>
+      </c>
+      <c r="D107" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E107" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F107" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G107" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="10">
+        <v>106</v>
+      </c>
+      <c r="B108" s="10">
+        <v>214</v>
+      </c>
+      <c r="C108" s="10">
+        <v>11</v>
+      </c>
+      <c r="D108" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E108" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F108" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G108" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="10">
+        <v>107</v>
+      </c>
+      <c r="B109" s="10">
+        <v>216</v>
+      </c>
+      <c r="C109" s="10">
+        <v>11</v>
+      </c>
+      <c r="D109" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E109" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F109" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G109" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="10">
+        <v>108</v>
+      </c>
+      <c r="B110" s="10">
+        <v>218</v>
+      </c>
+      <c r="C110" s="10">
+        <v>11</v>
+      </c>
+      <c r="D110" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E110" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F110" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G110" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="10">
+        <v>109</v>
+      </c>
+      <c r="B111" s="10">
+        <v>220</v>
+      </c>
+      <c r="C111" s="10">
+        <v>11</v>
+      </c>
+      <c r="D111" s="10">
+        <v>9043</v>
+      </c>
+      <c r="E111" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F111" s="10">
+        <v>9043</v>
+      </c>
+      <c r="G111" s="10">
         <v>100000</v>
       </c>
     </row>

--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F0EDD4-EDE2-4B0D-9E71-209600E58596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9236B59B-D2F0-4259-81F6-BEE61C7FA22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeCollection" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +103,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +177,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,7 +192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,8 +205,11 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,11 +243,15 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30"/>
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="4" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -256,9 +276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3119,6 +3139,351 @@
       </c>
       <c r="G111" s="10">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>110</v>
+      </c>
+      <c r="B112" s="11">
+        <v>222</v>
+      </c>
+      <c r="C112" s="11">
+        <v>12</v>
+      </c>
+      <c r="D112" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E112" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F112" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G112" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>111</v>
+      </c>
+      <c r="B113" s="11">
+        <v>224</v>
+      </c>
+      <c r="C113" s="11">
+        <v>12</v>
+      </c>
+      <c r="D113" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E113" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F113" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G113" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>112</v>
+      </c>
+      <c r="B114" s="11">
+        <v>226</v>
+      </c>
+      <c r="C114" s="11">
+        <v>12</v>
+      </c>
+      <c r="D114" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E114" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F114" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G114" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>113</v>
+      </c>
+      <c r="B115" s="11">
+        <v>228</v>
+      </c>
+      <c r="C115" s="11">
+        <v>12</v>
+      </c>
+      <c r="D115" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E115" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F115" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G115" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>114</v>
+      </c>
+      <c r="B116" s="11">
+        <v>230</v>
+      </c>
+      <c r="C116" s="11">
+        <v>12</v>
+      </c>
+      <c r="D116" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E116" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F116" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G116" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>115</v>
+      </c>
+      <c r="B117" s="11">
+        <v>232</v>
+      </c>
+      <c r="C117" s="11">
+        <v>12</v>
+      </c>
+      <c r="D117" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E117" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F117" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G117" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>116</v>
+      </c>
+      <c r="B118" s="11">
+        <v>234</v>
+      </c>
+      <c r="C118" s="11">
+        <v>12</v>
+      </c>
+      <c r="D118" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E118" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F118" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G118" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>117</v>
+      </c>
+      <c r="B119" s="11">
+        <v>236</v>
+      </c>
+      <c r="C119" s="11">
+        <v>12</v>
+      </c>
+      <c r="D119" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E119" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F119" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G119" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>118</v>
+      </c>
+      <c r="B120" s="11">
+        <v>238</v>
+      </c>
+      <c r="C120" s="11">
+        <v>12</v>
+      </c>
+      <c r="D120" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E120" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F120" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G120" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>119</v>
+      </c>
+      <c r="B121" s="11">
+        <v>240</v>
+      </c>
+      <c r="C121" s="11">
+        <v>12</v>
+      </c>
+      <c r="D121" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E121" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F121" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G121" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>120</v>
+      </c>
+      <c r="B122" s="11">
+        <v>242</v>
+      </c>
+      <c r="C122" s="11">
+        <v>12</v>
+      </c>
+      <c r="D122" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E122" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F122" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G122" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="11">
+        <v>121</v>
+      </c>
+      <c r="B123" s="11">
+        <v>244</v>
+      </c>
+      <c r="C123" s="11">
+        <v>12</v>
+      </c>
+      <c r="D123" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E123" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F123" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G123" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
+        <v>122</v>
+      </c>
+      <c r="B124" s="11">
+        <v>246</v>
+      </c>
+      <c r="C124" s="11">
+        <v>12</v>
+      </c>
+      <c r="D124" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E124" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F124" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G124" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="11">
+        <v>123</v>
+      </c>
+      <c r="B125" s="11">
+        <v>248</v>
+      </c>
+      <c r="C125" s="11">
+        <v>12</v>
+      </c>
+      <c r="D125" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E125" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F125" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G125" s="11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
+        <v>124</v>
+      </c>
+      <c r="B126" s="11">
+        <v>250</v>
+      </c>
+      <c r="C126" s="11">
+        <v>12</v>
+      </c>
+      <c r="D126" s="11">
+        <v>9048</v>
+      </c>
+      <c r="E126" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F126" s="11">
+        <v>9048</v>
+      </c>
+      <c r="G126" s="11">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
